--- a/Alogrithm/백준문제모음/바킹독 문제표.xlsx
+++ b/Alogrithm/백준문제모음/바킹독 문제표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eg\Desktop\development\Study\Alogrithm\바킹독\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eg\Desktop\development\Study\Alogrithm\백준문제모음\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6FA37D-2AE5-4CAD-BF4A-C21BFA732571}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D9997E-6B97-4B31-96B6-47236220FE5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41085" yWindow="2040" windowWidth="19200" windowHeight="7515" activeTab="1" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
+    <workbookView xWindow="38520" yWindow="5160" windowWidth="19200" windowHeight="7515" activeTab="1" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
   </bookViews>
   <sheets>
     <sheet name="part1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="292">
   <si>
     <t>문제</t>
   </si>
@@ -1254,6 +1254,12 @@
   </si>
   <si>
     <t>그리디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. #define Y first 헷깔렸어;;
+2. 접근할 수 없는 위치 || 이미방문했던 위치 --&gt; continue 조건 기억해두기
+3. 문제 맨 마지막의 예외조건 빼먹음 ㅠㅠ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3308,11 +3314,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CEE8D0-E178-4B4F-9344-5879EF5EE046}">
   <dimension ref="C2:N212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="9" max="9" width="37.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="3:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C2" t="s">
@@ -3357,7 +3366,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="3:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:14" ht="118" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C4" s="2">
         <v>1926</v>
       </c>
@@ -3375,6 +3384,9 @@
       </c>
       <c r="H4" s="5">
         <v>0.432</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="3:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">

--- a/Alogrithm/백준문제모음/바킹독 문제표.xlsx
+++ b/Alogrithm/백준문제모음/바킹독 문제표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eg\Desktop\development\Study\Alogrithm\백준문제모음\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D9997E-6B97-4B31-96B6-47236220FE5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CCB72D-3B27-484E-BC48-F125EF585723}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38520" yWindow="5160" windowWidth="19200" windowHeight="7515" activeTab="1" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
+    <workbookView xWindow="38385" yWindow="1770" windowWidth="12795" windowHeight="5010" activeTab="1" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
   </bookViews>
   <sheets>
     <sheet name="part1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="293">
   <si>
     <t>문제</t>
   </si>
@@ -1260,6 +1260,12 @@
     <t>1. #define Y first 헷깔렸어;;
 2. 접근할 수 없는 위치 || 이미방문했던 위치 --&gt; continue 조건 기억해두기
 3. 문제 맨 마지막의 예외조건 빼먹음 ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 최외각만 BFS돌기 위해 for문, queue.size() 를 while 대신에 이용한다.
+2. 더 이상 진행가능한 지훈Element가 없을 때까지 불과 지훈을 pop, push한다.
+3. 이론에서는 visited[ ][ ]을 사용했지만 실전에서는 map자체를 visited로 볼 수 있다. 따라서 bfs의 if( )continue; 로직의 조건절에 map[ ][ ] 값을 이용함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3315,7 +3321,7 @@
   <dimension ref="C2:N212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3429,7 +3435,7 @@
         <v>0.33489999999999998</v>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:14" ht="136.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C7" s="6">
         <v>4179</v>
       </c>
@@ -3447,6 +3453,9 @@
       </c>
       <c r="H7" s="9">
         <v>0.22133</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">

--- a/Alogrithm/백준문제모음/바킹독 문제표.xlsx
+++ b/Alogrithm/백준문제모음/바킹독 문제표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eg\Desktop\development\Study\Alogrithm\백준문제모음\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CCB72D-3B27-484E-BC48-F125EF585723}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59E2D92-3245-4597-94F9-B5890A3F1086}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38385" yWindow="1770" windowWidth="12795" windowHeight="5010" activeTab="1" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
+    <workbookView xWindow="34215" yWindow="1035" windowWidth="17340" windowHeight="11010" activeTab="1" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
   </bookViews>
   <sheets>
     <sheet name="part1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="296">
   <si>
     <t>문제</t>
   </si>
@@ -1266,6 +1266,20 @@
     <t>1. 최외각만 BFS돌기 위해 for문, queue.size() 를 while 대신에 이용한다.
 2. 더 이상 진행가능한 지훈Element가 없을 때까지 불과 지훈을 pop, push한다.
 3. 이론에서는 visited[ ][ ]을 사용했지만 실전에서는 map자체를 visited로 볼 수 있다. 따라서 bfs의 if( )continue; 로직의 조건절에 map[ ][ ] 값을 이용함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. visited 표시는 push할때!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토 (3차원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. I,j,k  와 y,x,z 순서 조심하기
+2. 맵의 값을 변경하는 문제. 따라서 visited 필요없음
+3. while문과  for문의 조화…. 쩔었음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3320,12 +3334,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CEE8D0-E178-4B4F-9344-5879EF5EE046}">
   <dimension ref="C2:N212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="4" max="4" width="15.4140625" customWidth="1"/>
     <col min="9" max="9" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3477,6 +3492,9 @@
       <c r="H8" s="5">
         <v>0.25011</v>
       </c>
+      <c r="I8" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="9" spans="3:14" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C9" s="6">
@@ -3498,12 +3516,12 @@
         <v>0.35796</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:14" ht="68.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="2">
         <v>7569</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>294</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>28</v>
@@ -3516,6 +3534,9 @@
       </c>
       <c r="H10" s="5">
         <v>0.40489999999999998</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">

--- a/Alogrithm/백준문제모음/바킹독 문제표.xlsx
+++ b/Alogrithm/백준문제모음/바킹독 문제표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eg\Desktop\development\Study\Alogrithm\백준문제모음\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59E2D92-3245-4597-94F9-B5890A3F1086}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED98C0A-7663-42CC-9BDB-EB00347A6AC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34215" yWindow="1035" windowWidth="17340" windowHeight="11010" activeTab="1" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
+    <workbookView xWindow="41670" yWindow="1665" windowWidth="22725" windowHeight="11055" activeTab="1" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
   </bookViews>
   <sheets>
     <sheet name="part1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="298">
   <si>
     <t>문제</t>
   </si>
@@ -1277,9 +1277,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. I,j,k  와 y,x,z 순서 조심하기
+    <r>
+      <t xml:space="preserve">1. I,j,k  와 y,x,z 순서 조심하기
 2. 맵의 값을 변경하는 문제. 따라서 visited 필요없음
-3. while문과  for문의 조화…. 쩔었음.</t>
+3. while문과  for문의 조화…. 쩔었음.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4. for문의 i&lt;q.size(); 를 하면 안됌. 
+ Int q_size = q.size(); 를 미리해놓고 q_size를 for문에서 이용해야함. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. vector에 집어넣고 sort(v.begin(), v.end())시킴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숩다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3334,8 +3358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CEE8D0-E178-4B4F-9344-5879EF5EE046}">
   <dimension ref="C2:N212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3496,7 +3520,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C9" s="6">
         <v>1012</v>
       </c>
@@ -3516,7 +3540,7 @@
         <v>0.35796</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="68.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:14" ht="119.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="2">
         <v>7569</v>
       </c>
@@ -3539,7 +3563,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C11" s="6">
         <v>9466</v>
       </c>
@@ -3559,7 +3583,7 @@
         <v>0.24615999999999999</v>
       </c>
     </row>
-    <row r="12" spans="3:14" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C12" s="2">
         <v>2583</v>
       </c>
@@ -3578,8 +3602,11 @@
       <c r="H12" s="5">
         <v>0.56689000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="3:14" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="6">
         <v>2667</v>
       </c>
@@ -3598,8 +3625,11 @@
       <c r="H13" s="9">
         <v>0.39129000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="3:14" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C14" s="2">
         <v>7562</v>
       </c>
@@ -3617,6 +3647,9 @@
       </c>
       <c r="H14" s="5">
         <v>0.47016999999999998</v>
+      </c>
+      <c r="I14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3719,7 +3752,7 @@
         <v>0.22708999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C20" s="2">
         <v>2146</v>
       </c>
@@ -3739,7 +3772,7 @@
         <v>0.33196999999999999</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C21" s="6">
         <v>5014</v>
       </c>
@@ -3779,7 +3812,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C23" s="6">
         <v>13549</v>
       </c>
@@ -3799,7 +3832,7 @@
         <v>0.26379999999999998</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C24" s="2">
         <v>13913</v>
       </c>
@@ -3839,7 +3872,7 @@
         <v>0.17974999999999999</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C26" s="2">
         <v>3197</v>
       </c>
@@ -3879,7 +3912,7 @@
         <v>0.25929999999999997</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C28" s="2">
         <v>17071</v>
       </c>
@@ -4004,7 +4037,7 @@
         <v>0.36747999999999997</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C37" s="6">
         <v>17478</v>
       </c>
@@ -4024,7 +4057,7 @@
         <v>0.36287000000000003</v>
       </c>
     </row>
-    <row r="38" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C38" s="2">
         <v>2447</v>
       </c>
@@ -4044,7 +4077,7 @@
         <v>0.51173000000000002</v>
       </c>
     </row>
-    <row r="39" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C39" s="6">
         <v>2448</v>
       </c>
@@ -4084,7 +4117,7 @@
         <v>0.59225000000000005</v>
       </c>
     </row>
-    <row r="41" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C41" s="6">
         <v>1780</v>
       </c>
@@ -4104,7 +4137,7 @@
         <v>0.59177000000000002</v>
       </c>
     </row>
-    <row r="42" spans="3:8" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C42" s="2">
         <v>14956</v>
       </c>
@@ -4149,7 +4182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C46" s="2">
         <v>15649</v>
       </c>
@@ -4169,7 +4202,7 @@
         <v>0.60280999999999996</v>
       </c>
     </row>
-    <row r="47" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C47" s="6">
         <v>15650</v>
       </c>
@@ -4189,7 +4222,7 @@
         <v>0.74958999999999998</v>
       </c>
     </row>
-    <row r="48" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C48" s="2">
         <v>15651</v>
       </c>
@@ -4209,7 +4242,7 @@
         <v>0.65920999999999996</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C49" s="6">
         <v>15652</v>
       </c>
@@ -4229,7 +4262,7 @@
         <v>0.80281999999999998</v>
       </c>
     </row>
-    <row r="50" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C50" s="2">
         <v>15654</v>
       </c>
@@ -4249,7 +4282,7 @@
         <v>0.7369</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C51" s="6">
         <v>15655</v>
       </c>
@@ -4269,7 +4302,7 @@
         <v>0.86095999999999995</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C52" s="2">
         <v>15656</v>
       </c>
@@ -4289,7 +4322,7 @@
         <v>0.79193999999999998</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C53" s="6">
         <v>15657</v>
       </c>
@@ -4309,7 +4342,7 @@
         <v>0.85592000000000001</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C54" s="2">
         <v>15663</v>
       </c>
@@ -4329,7 +4362,7 @@
         <v>0.49135000000000001</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C55" s="6">
         <v>15664</v>
       </c>
@@ -4349,7 +4382,7 @@
         <v>0.80859999999999999</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C56" s="2">
         <v>15665</v>
       </c>
@@ -4369,7 +4402,7 @@
         <v>0.76468999999999998</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C57" s="6">
         <v>15666</v>
       </c>
@@ -4409,7 +4442,7 @@
         <v>0.52995999999999999</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C59" s="6">
         <v>1182</v>
       </c>
@@ -4449,7 +4482,7 @@
         <v>0.54117999999999999</v>
       </c>
     </row>
-    <row r="61" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C61" s="6">
         <v>1759</v>
       </c>
@@ -4489,7 +4522,7 @@
         <v>0.23885000000000001</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C63" s="6">
         <v>1941</v>
       </c>
@@ -4529,7 +4562,7 @@
         <v>0.52983999999999998</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C65" s="6">
         <v>18809</v>
       </c>
@@ -4594,7 +4627,7 @@
         <v>0.41760000000000003</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C70" s="6">
         <v>18808</v>
       </c>
@@ -4614,7 +4647,7 @@
         <v>0.61255999999999999</v>
       </c>
     </row>
-    <row r="71" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C71" s="2">
         <v>12100</v>
       </c>
@@ -4654,7 +4687,7 @@
         <v>0.42509000000000002</v>
       </c>
     </row>
-    <row r="73" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C73" s="2">
         <v>14499</v>
       </c>
@@ -4694,7 +4727,7 @@
         <v>0.51919000000000004</v>
       </c>
     </row>
-    <row r="75" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C75" s="2">
         <v>11559</v>
       </c>
@@ -4734,7 +4767,7 @@
         <v>0.52763000000000004</v>
       </c>
     </row>
-    <row r="77" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C77" s="2">
         <v>1941</v>
       </c>
@@ -4754,7 +4787,7 @@
         <v>0.46451999999999999</v>
       </c>
     </row>
-    <row r="78" spans="3:8" ht="85.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="3:8" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C78" s="6">
         <v>15898</v>
       </c>
@@ -4774,7 +4807,7 @@
         <v>0.57218000000000002</v>
       </c>
     </row>
-    <row r="79" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C79" s="2">
         <v>14503</v>
       </c>
@@ -4794,7 +4827,7 @@
         <v>0.52336000000000005</v>
       </c>
     </row>
-    <row r="80" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C80" s="6">
         <v>13460</v>
       </c>
@@ -4834,7 +4867,7 @@
         <v>0.37328</v>
       </c>
     </row>
-    <row r="82" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C82" s="6">
         <v>14500</v>
       </c>
@@ -4874,7 +4907,7 @@
         <v>0.54859000000000002</v>
       </c>
     </row>
-    <row r="84" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C84" s="6">
         <v>14888</v>
       </c>
@@ -4894,7 +4927,7 @@
         <v>0.49608999999999998</v>
       </c>
     </row>
-    <row r="85" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C85" s="2">
         <v>14889</v>
       </c>
@@ -4934,7 +4967,7 @@
         <v>0.54388999999999998</v>
       </c>
     </row>
-    <row r="87" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C87" s="2">
         <v>15684</v>
       </c>
@@ -4954,7 +4987,7 @@
         <v>0.21187</v>
       </c>
     </row>
-    <row r="88" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C88" s="6">
         <v>15685</v>
       </c>
@@ -5034,7 +5067,7 @@
         <v>0.36020999999999997</v>
       </c>
     </row>
-    <row r="92" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C92" s="6">
         <v>16235</v>
       </c>
@@ -5154,7 +5187,7 @@
         <v>0.23246</v>
       </c>
     </row>
-    <row r="98" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C98" s="6">
         <v>17144</v>
       </c>
@@ -5174,7 +5207,7 @@
         <v>0.53698999999999997</v>
       </c>
     </row>
-    <row r="99" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C99" s="2">
         <v>4991</v>
       </c>
@@ -5194,7 +5227,7 @@
         <v>0.2878</v>
       </c>
     </row>
-    <row r="100" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C100" s="6">
         <v>16985</v>
       </c>
@@ -5214,7 +5247,7 @@
         <v>0.56511999999999996</v>
       </c>
     </row>
-    <row r="101" spans="3:8" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C101" s="2">
         <v>16986</v>
       </c>
@@ -5234,7 +5267,7 @@
         <v>0.39439999999999997</v>
       </c>
     </row>
-    <row r="102" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C102" s="6">
         <v>17779</v>
       </c>
@@ -5254,7 +5287,7 @@
         <v>0.54803999999999997</v>
       </c>
     </row>
-    <row r="103" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C103" s="2">
         <v>17837</v>
       </c>
@@ -5274,7 +5307,7 @@
         <v>0.44614999999999999</v>
       </c>
     </row>
-    <row r="104" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C104" s="6">
         <v>17822</v>
       </c>
@@ -5294,7 +5327,7 @@
         <v>0.30285000000000001</v>
       </c>
     </row>
-    <row r="105" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C105" s="2">
         <v>17825</v>
       </c>
@@ -5314,7 +5347,7 @@
         <v>0.34815000000000002</v>
       </c>
     </row>
-    <row r="106" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C106" s="6">
         <v>19235</v>
       </c>
@@ -5334,7 +5367,7 @@
         <v>0.18815000000000001</v>
       </c>
     </row>
-    <row r="107" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C107" s="2">
         <v>20061</v>
       </c>
@@ -5354,7 +5387,7 @@
         <v>0.34288000000000002</v>
       </c>
     </row>
-    <row r="108" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C108" s="6">
         <v>19236</v>
       </c>
@@ -5394,7 +5427,7 @@
         <v>0.37273000000000001</v>
       </c>
     </row>
-    <row r="110" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C110" s="6">
         <v>19238</v>
       </c>
@@ -5414,7 +5447,7 @@
         <v>0.19441</v>
       </c>
     </row>
-    <row r="111" spans="3:8" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C111" s="2">
         <v>20055</v>
       </c>
@@ -5434,7 +5467,7 @@
         <v>0.56745000000000001</v>
       </c>
     </row>
-    <row r="112" spans="3:8" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C112" s="6">
         <v>20056</v>
       </c>
@@ -5454,7 +5487,7 @@
         <v>0.31617000000000001</v>
       </c>
     </row>
-    <row r="113" spans="3:8" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C113" s="2">
         <v>20057</v>
       </c>
@@ -5474,7 +5507,7 @@
         <v>0.7056</v>
       </c>
     </row>
-    <row r="114" spans="3:8" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C114" s="6">
         <v>20058</v>
       </c>
@@ -5494,7 +5527,7 @@
         <v>0.40082000000000001</v>
       </c>
     </row>
-    <row r="115" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C115" s="2">
         <v>16637</v>
       </c>
@@ -5514,7 +5547,7 @@
         <v>0.37080000000000002</v>
       </c>
     </row>
-    <row r="116" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C116" s="6">
         <v>17070</v>
       </c>
@@ -5534,7 +5567,7 @@
         <v>0.48089999999999999</v>
       </c>
     </row>
-    <row r="117" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C117" s="2">
         <v>17135</v>
       </c>
@@ -5554,7 +5587,7 @@
         <v>0.30215999999999998</v>
       </c>
     </row>
-    <row r="118" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C118" s="6">
         <v>17136</v>
       </c>
@@ -5574,7 +5607,7 @@
         <v>0.32539000000000001</v>
       </c>
     </row>
-    <row r="119" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="119" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C119" s="2">
         <v>17406</v>
       </c>
@@ -5594,7 +5627,7 @@
         <v>0.39585999999999999</v>
       </c>
     </row>
-    <row r="120" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C120" s="6">
         <v>17471</v>
       </c>
@@ -5614,7 +5647,7 @@
         <v>0.36596000000000001</v>
       </c>
     </row>
-    <row r="121" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="121" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C121" s="2">
         <v>17472</v>
       </c>
@@ -5659,7 +5692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="126" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C126" s="2">
         <v>2750</v>
       </c>
@@ -5679,7 +5712,7 @@
         <v>0.58213000000000004</v>
       </c>
     </row>
-    <row r="127" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="127" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C127" s="6">
         <v>2751</v>
       </c>
@@ -5699,7 +5732,7 @@
         <v>0.30064000000000002</v>
       </c>
     </row>
-    <row r="128" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="128" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C128" s="2">
         <v>10989</v>
       </c>
@@ -5719,7 +5752,7 @@
         <v>0.22936999999999999</v>
       </c>
     </row>
-    <row r="129" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="129" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C129" s="6">
         <v>11931</v>
       </c>
@@ -5739,7 +5772,7 @@
         <v>0.54586000000000001</v>
       </c>
     </row>
-    <row r="130" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="130" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C130" s="2">
         <v>15688</v>
       </c>
@@ -5759,7 +5792,7 @@
         <v>0.49618000000000001</v>
       </c>
     </row>
-    <row r="131" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="131" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C131" s="6">
         <v>10814</v>
       </c>
@@ -5779,7 +5812,7 @@
         <v>0.41553000000000001</v>
       </c>
     </row>
-    <row r="132" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="132" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C132" s="2">
         <v>11650</v>
       </c>
@@ -5799,7 +5832,7 @@
         <v>0.48519000000000001</v>
       </c>
     </row>
-    <row r="133" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="133" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C133" s="6">
         <v>11651</v>
       </c>
@@ -5844,7 +5877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="137" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C137" s="2">
         <v>1431</v>
       </c>
@@ -5884,7 +5917,7 @@
         <v>0.28066000000000002</v>
       </c>
     </row>
-    <row r="139" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="139" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C139" s="2">
         <v>5648</v>
       </c>
@@ -5924,7 +5957,7 @@
         <v>0.40118999999999999</v>
       </c>
     </row>
-    <row r="141" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="141" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C141" s="2">
         <v>10814</v>
       </c>
@@ -5944,7 +5977,7 @@
         <v>0.41553000000000001</v>
       </c>
     </row>
-    <row r="142" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="142" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C142" s="6">
         <v>11656</v>
       </c>
@@ -5964,7 +5997,7 @@
         <v>0.68015999999999999</v>
       </c>
     </row>
-    <row r="143" spans="3:8" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="143" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C143" s="2">
         <v>7795</v>
       </c>
@@ -6049,7 +6082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="150" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C150" s="2">
         <v>1463</v>
       </c>
@@ -6069,7 +6102,7 @@
         <v>0.31820999999999999</v>
       </c>
     </row>
-    <row r="151" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="151" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C151" s="6">
         <v>9095</v>
       </c>
@@ -6089,7 +6122,7 @@
         <v>0.62111000000000005</v>
       </c>
     </row>
-    <row r="152" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="152" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C152" s="2">
         <v>2579</v>
       </c>
@@ -6129,7 +6162,7 @@
         <v>0.48098000000000002</v>
       </c>
     </row>
-    <row r="154" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="154" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C154" s="2">
         <v>11726</v>
       </c>
@@ -6149,7 +6182,7 @@
         <v>0.34959000000000001</v>
       </c>
     </row>
-    <row r="155" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="155" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C155" s="6">
         <v>11659</v>
       </c>
@@ -6169,7 +6202,7 @@
         <v>0.50085999999999997</v>
       </c>
     </row>
-    <row r="156" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="156" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C156" s="2">
         <v>12852</v>
       </c>
@@ -6189,7 +6222,7 @@
         <v>0.49631999999999998</v>
       </c>
     </row>
-    <row r="157" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="157" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C157" s="6">
         <v>1003</v>
       </c>
@@ -6209,7 +6242,7 @@
         <v>0.30158000000000001</v>
       </c>
     </row>
-    <row r="158" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="158" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C158" s="2">
         <v>1932</v>
       </c>
@@ -6229,7 +6262,7 @@
         <v>0.59486000000000006</v>
       </c>
     </row>
-    <row r="159" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="159" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C159" s="6">
         <v>2748</v>
       </c>
@@ -6269,7 +6302,7 @@
         <v>0.38249</v>
       </c>
     </row>
-    <row r="161" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="161" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C161" s="6">
         <v>11727</v>
       </c>
@@ -6289,7 +6322,7 @@
         <v>0.59457000000000004</v>
       </c>
     </row>
-    <row r="162" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="162" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C162" s="2">
         <v>2156</v>
       </c>
@@ -6329,7 +6362,7 @@
         <v>0.30512</v>
       </c>
     </row>
-    <row r="164" spans="3:8" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="164" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C164" s="2">
         <v>11053</v>
       </c>
@@ -6349,7 +6382,7 @@
         <v>0.36846000000000001</v>
       </c>
     </row>
-    <row r="165" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="165" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C165" s="6">
         <v>10844</v>
       </c>
@@ -6369,7 +6402,7 @@
         <v>0.28510999999999997</v>
       </c>
     </row>
-    <row r="166" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="166" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C166" s="2">
         <v>15988</v>
       </c>
@@ -6389,7 +6422,7 @@
         <v>0.35759999999999997</v>
       </c>
     </row>
-    <row r="167" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="167" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C167" s="6">
         <v>9461</v>
       </c>
@@ -6449,7 +6482,7 @@
         <v>0.43296000000000001</v>
       </c>
     </row>
-    <row r="170" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="170" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C170" s="2">
         <v>11052</v>
       </c>
@@ -6569,7 +6602,7 @@
         <v>0.30919999999999997</v>
       </c>
     </row>
-    <row r="176" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C176" s="2">
         <v>4883</v>
       </c>
@@ -6609,7 +6642,7 @@
         <v>0.40562999999999999</v>
       </c>
     </row>
-    <row r="178" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="178" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C178" s="2">
         <v>1699</v>
       </c>
@@ -6629,7 +6662,7 @@
         <v>0.39818999999999999</v>
       </c>
     </row>
-    <row r="179" spans="3:8" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="179" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C179" s="6">
         <v>11055</v>
       </c>
@@ -6649,7 +6682,7 @@
         <v>0.45273000000000002</v>
       </c>
     </row>
-    <row r="180" spans="3:8" ht="68.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="180" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C180" s="2">
         <v>14002</v>
       </c>
@@ -6709,7 +6742,7 @@
         <v>0.28172000000000003</v>
       </c>
     </row>
-    <row r="183" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="183" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C183" s="6">
         <v>2133</v>
       </c>
@@ -6749,7 +6782,7 @@
         <v>0.28181</v>
       </c>
     </row>
-    <row r="185" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="185" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C185" s="6">
         <v>1915</v>
       </c>
@@ -6769,7 +6802,7 @@
         <v>0.29304000000000002</v>
       </c>
     </row>
-    <row r="186" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="186" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C186" s="2">
         <v>10942</v>
       </c>
@@ -6849,7 +6882,7 @@
         <v>0.19522999999999999</v>
       </c>
     </row>
-    <row r="190" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="190" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C190" s="2">
         <v>11660</v>
       </c>
@@ -6954,7 +6987,7 @@
         <v>0.52795999999999998</v>
       </c>
     </row>
-    <row r="198" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="198" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C198" s="6">
         <v>1931</v>
       </c>
@@ -7034,7 +7067,7 @@
         <v>0.66034999999999999</v>
       </c>
     </row>
-    <row r="202" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="202" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C202" s="6">
         <v>1541</v>
       </c>
@@ -7114,7 +7147,7 @@
         <v>0.51234999999999997</v>
       </c>
     </row>
-    <row r="206" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="206" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C206" s="6">
         <v>1700</v>
       </c>
@@ -7134,7 +7167,7 @@
         <v>0.25857000000000002</v>
       </c>
     </row>
-    <row r="207" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="207" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C207" s="2">
         <v>11000</v>
       </c>
@@ -7154,7 +7187,7 @@
         <v>0.28891</v>
       </c>
     </row>
-    <row r="208" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="208" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C208" s="6">
         <v>15903</v>
       </c>
@@ -7214,7 +7247,7 @@
         <v>0.39156999999999997</v>
       </c>
     </row>
-    <row r="211" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="211" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C211" s="2">
         <v>2457</v>
       </c>

--- a/Alogrithm/백준문제모음/바킹독 문제표.xlsx
+++ b/Alogrithm/백준문제모음/바킹독 문제표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eg\Desktop\development\Study\Alogrithm\백준문제모음\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED98C0A-7663-42CC-9BDB-EB00347A6AC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487A7D15-267D-44D7-BDC3-C622855FEEC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41670" yWindow="1665" windowWidth="22725" windowHeight="11055" activeTab="1" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
+    <workbookView xWindow="41970" yWindow="2820" windowWidth="22725" windowHeight="11055" activeTab="1" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
   </bookViews>
   <sheets>
     <sheet name="part1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="301">
   <si>
     <t>문제</t>
   </si>
@@ -1306,6 +1306,72 @@
     <t>숩다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1. 색을 구분못하는 경우는 R -&gt; B로 변경해서 색을 통일시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 배열복사를 효율적으로 하는 방법
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 동시성이 있는 문제는 값을 함부로 바꾸지 마라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. 지역변수로 선언한 visited는 무조건 ={0, }; 으로 초기화할것</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">testcase 가 여럿일 경우 재용되는 queue안에 이전테스트에서 쓰였던 element요소가 남아있게되어 그것을 사용하게 된다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>따라서, 지역변수로 Queue를 선언한다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+초기 push할 element들은 변수나 배열을 전역으로 선언하여 저장해두고 함수BFS() 내부로 들어왔을 때 PUSH한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1418,7 +1484,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1434,6 +1500,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,7 +1566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1548,6 +1620,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3358,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CEE8D0-E178-4B4F-9344-5879EF5EE046}">
   <dimension ref="C2:N212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3671,6 +3746,9 @@
       <c r="H15" s="9">
         <v>0.58052000000000004</v>
       </c>
+      <c r="I15" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="16" spans="3:14" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C16" s="2">
@@ -3691,8 +3769,11 @@
       <c r="H16" s="5">
         <v>0.22603999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I16" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C17" s="6">
         <v>2468</v>
       </c>
@@ -3712,7 +3793,7 @@
         <v>0.34408</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:9" ht="85.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C18" s="2">
         <v>2573</v>
       </c>
@@ -3731,8 +3812,11 @@
       <c r="H18" s="5">
         <v>0.26218000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I18" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="119.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C19" s="6">
         <v>5427</v>
       </c>
@@ -3751,8 +3835,11 @@
       <c r="H19" s="9">
         <v>0.22708999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I19" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C20" s="2">
         <v>2146</v>
       </c>
@@ -3772,7 +3859,7 @@
         <v>0.33196999999999999</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C21" s="6">
         <v>5014</v>
       </c>
@@ -3792,7 +3879,7 @@
         <v>0.34206999999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C22" s="2">
         <v>6593</v>
       </c>
@@ -3812,7 +3899,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C23" s="6">
         <v>13549</v>
       </c>
@@ -3832,7 +3919,7 @@
         <v>0.26379999999999998</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C24" s="2">
         <v>13913</v>
       </c>
@@ -3852,7 +3939,7 @@
         <v>0.33017999999999997</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="3:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C25" s="6">
         <v>1600</v>
       </c>
@@ -3872,7 +3959,7 @@
         <v>0.17974999999999999</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C26" s="2">
         <v>3197</v>
       </c>
@@ -3892,7 +3979,7 @@
         <v>0.19128000000000001</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C27" s="6">
         <v>11967</v>
       </c>
@@ -3912,7 +3999,7 @@
         <v>0.25929999999999997</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C28" s="2">
         <v>17071</v>
       </c>
@@ -3932,7 +4019,7 @@
         <v>0.21956999999999999</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C29" s="6">
         <v>16920</v>
       </c>
@@ -3952,7 +4039,7 @@
         <v>0.20813000000000001</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C32" t="s">
         <v>135</v>
       </c>

--- a/Alogrithm/백준문제모음/바킹독 문제표.xlsx
+++ b/Alogrithm/백준문제모음/바킹독 문제표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eg\Desktop\development\Study\Alogrithm\백준문제모음\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487A7D15-267D-44D7-BDC3-C622855FEEC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978A0CF1-7CED-424A-8FB9-8E213C931342}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41970" yWindow="2820" windowWidth="22725" windowHeight="11055" activeTab="1" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="304">
   <si>
     <t>문제</t>
   </si>
@@ -1299,10 +1299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. vector에 집어넣고 sort(v.begin(), v.end())시킴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>숩다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1369,6 +1365,49 @@
       </rPr>
       <t xml:space="preserve">
 초기 push할 element들은 변수나 배열을 전역으로 선언하여 저장해두고 함수BFS() 내부로 들어왔을 때 PUSH한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못품..</t>
+  </si>
+  <si>
+    <t>cin 입력 공백, 개행무시하는 방법
+못품..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. vector에 집어넣고 sort(v.begin(), v.end())시킴
+2. 내림차순 정렬 sort(v.begin(), v.end(), greater&lt;int&gt;())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>풀이1)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>우선순위큐(사용법 정리하기)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+풀이2) *2 인 경우를 로직의 맨 상단에 배치</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3433,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CEE8D0-E178-4B4F-9344-5879EF5EE046}">
   <dimension ref="C2:N212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3658,7 +3697,7 @@
         <v>0.24615999999999999</v>
       </c>
     </row>
-    <row r="12" spans="3:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:14" ht="68.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C12" s="2">
         <v>2583</v>
       </c>
@@ -3677,8 +3716,8 @@
       <c r="H12" s="5">
         <v>0.56689000000000001</v>
       </c>
-      <c r="I12" t="s">
-        <v>296</v>
+      <c r="I12" s="11" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3701,7 +3740,7 @@
         <v>0.39129000000000003</v>
       </c>
       <c r="I13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3724,7 +3763,7 @@
         <v>0.47016999999999998</v>
       </c>
       <c r="I14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3747,7 +3786,7 @@
         <v>0.58052000000000004</v>
       </c>
       <c r="I15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3813,7 +3852,7 @@
         <v>0.26218000000000002</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="119.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3836,7 +3875,7 @@
         <v>0.22708999999999999</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -3858,6 +3897,9 @@
       <c r="H20" s="5">
         <v>0.33196999999999999</v>
       </c>
+      <c r="I20" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="21" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C21" s="6">
@@ -3879,7 +3921,7 @@
         <v>0.34206999999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="3:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C22" s="2">
         <v>6593</v>
       </c>
@@ -3898,8 +3940,11 @@
       <c r="H22" s="5">
         <v>0.34899999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I22" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C23" s="6">
         <v>13549</v>
       </c>
@@ -3917,6 +3962,9 @@
       </c>
       <c r="H23" s="9">
         <v>0.26379999999999998</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">

--- a/Alogrithm/백준문제모음/바킹독 문제표.xlsx
+++ b/Alogrithm/백준문제모음/바킹독 문제표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eg\Desktop\development\Study\Alogrithm\백준문제모음\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978A0CF1-7CED-424A-8FB9-8E213C931342}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A8B22B-48B2-4992-A34E-CC31675DF4AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41970" yWindow="2820" windowWidth="22725" windowHeight="11055" activeTab="1" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="305">
   <si>
     <t>문제</t>
   </si>
@@ -1409,6 +1409,10 @@
       <t>,
 풀이2) *2 인 경우를 로직의 맨 상단에 배치</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간초과났다는데;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3473,7 +3477,7 @@
   <dimension ref="C2:N212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3986,6 +3990,9 @@
       <c r="H24" s="5">
         <v>0.33017999999999997</v>
       </c>
+      <c r="I24" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" spans="3:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C25" s="6">
@@ -4006,6 +4013,9 @@
       <c r="H25" s="9">
         <v>0.17974999999999999</v>
       </c>
+      <c r="I25" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="26" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C26" s="2">
@@ -4025,6 +4035,9 @@
       </c>
       <c r="H26" s="5">
         <v>0.19128000000000001</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">

--- a/Alogrithm/백준문제모음/바킹독 문제표.xlsx
+++ b/Alogrithm/백준문제모음/바킹독 문제표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eg\Desktop\development\Study\Alogrithm\백준문제모음\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A8B22B-48B2-4992-A34E-CC31675DF4AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD725A7-217F-4577-9452-E004F8987ACB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41970" yWindow="2820" windowWidth="22725" windowHeight="11055" activeTab="1" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
+    <workbookView minimized="1" xWindow="3570" yWindow="0" windowWidth="15630" windowHeight="10200" activeTab="1" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
   </bookViews>
   <sheets>
     <sheet name="part1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="306">
   <si>
     <t>문제</t>
   </si>
@@ -1413,6 +1413,11 @@
   </si>
   <si>
     <t>시간초과났다는데;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. iterator 사용법 익히기 썅!!!
+2. 시간초과남</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3476,8 +3481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CEE8D0-E178-4B4F-9344-5879EF5EE046}">
   <dimension ref="C2:N212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4040,7 +4045,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="3:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C27" s="6">
         <v>11967</v>
       </c>
@@ -4058,6 +4063,9 @@
       </c>
       <c r="H27" s="9">
         <v>0.25929999999999997</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="3:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
